--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc105_I2_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc105_I2_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2714" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4510" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -332,10 +344,10 @@
       <c r="I7">
         <f>((C7-C6)^2+(D7- D6)^2)^.5</f>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="2" t="s">
+      <c r="J7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L7" t="n">
@@ -379,28 +391,28 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="2">
+      <c r="A9" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B9" t="s" s="2">
+      <c r="B9" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C9" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s" s="2">
+      <c r="C9" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E9" t="s" s="2">
+      <c r="E9" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F9" t="s" s="2">
+      <c r="F9" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G9" t="s" s="2">
+      <c r="G9" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H9" t="s" s="2">
+      <c r="H9" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -425,28 +437,28 @@
       </c>
     </row>
     <row r="11">
-      <c r="B11" t="s" s="2">
+      <c r="B11" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C11" t="s" s="2">
+      <c r="C11" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D11" t="s" s="2">
+      <c r="D11" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E11" t="s" s="2">
+      <c r="E11" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F11" t="s" s="2">
+      <c r="F11" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G11" t="s" s="2">
+      <c r="G11" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H11" t="s" s="2">
+      <c r="H11" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I11" t="s" s="2">
+      <c r="I11" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -592,10 +604,10 @@
       <c r="I16">
         <f>((C16-C15)^2+(D16- D15)^2)^.5</f>
       </c>
-      <c r="J16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K16" s="2" t="s">
+      <c r="J16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L16" t="n">
@@ -639,28 +651,28 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="2">
+      <c r="A18" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B18" t="s" s="2">
+      <c r="B18" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C18" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D18" t="s" s="2">
+      <c r="C18" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D18" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E18" t="s" s="2">
+      <c r="E18" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F18" t="s" s="2">
+      <c r="F18" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G18" t="s" s="2">
+      <c r="G18" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H18" t="s" s="2">
+      <c r="H18" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -685,28 +697,28 @@
       </c>
     </row>
     <row r="20">
-      <c r="B20" t="s" s="2">
+      <c r="B20" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C20" t="s" s="2">
+      <c r="C20" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D20" t="s" s="2">
+      <c r="D20" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E20" t="s" s="2">
+      <c r="E20" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F20" t="s" s="2">
+      <c r="F20" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G20" t="s" s="2">
+      <c r="G20" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H20" t="s" s="2">
+      <c r="H20" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I20" t="s" s="2">
+      <c r="I20" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -794,10 +806,10 @@
       <c r="I23">
         <f>((C23-C22)^2+(D23- D22)^2)^.5</f>
       </c>
-      <c r="J23" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K23" s="2" t="s">
+      <c r="J23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K23" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L23" t="n">
@@ -841,28 +853,28 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s" s="2">
+      <c r="A25" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B25" t="s" s="2">
+      <c r="B25" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C25" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D25" t="s" s="2">
+      <c r="C25" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D25" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E25" t="s" s="2">
+      <c r="E25" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F25" t="s" s="2">
+      <c r="F25" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G25" t="s" s="2">
+      <c r="G25" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H25" t="s" s="2">
+      <c r="H25" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -887,28 +899,28 @@
       </c>
     </row>
     <row r="27">
-      <c r="B27" t="s" s="2">
+      <c r="B27" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C27" t="s" s="2">
+      <c r="C27" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D27" t="s" s="2">
+      <c r="D27" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E27" t="s" s="2">
+      <c r="E27" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F27" t="s" s="2">
+      <c r="F27" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G27" t="s" s="2">
+      <c r="G27" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H27" t="s" s="2">
+      <c r="H27" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I27" t="s" s="2">
+      <c r="I27" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -996,10 +1008,10 @@
       <c r="I30">
         <f>((C30-C29)^2+(D30- D29)^2)^.5</f>
       </c>
-      <c r="J30" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K30" s="2" t="s">
+      <c r="J30" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K30" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L30" t="n">
@@ -1043,28 +1055,28 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="s" s="2">
+      <c r="A32" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B32" t="s" s="2">
+      <c r="B32" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C32" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D32" t="s" s="2">
+      <c r="C32" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D32" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E32" t="s" s="2">
+      <c r="E32" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F32" t="s" s="2">
+      <c r="F32" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G32" t="s" s="2">
+      <c r="G32" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H32" t="s" s="2">
+      <c r="H32" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1089,28 +1101,28 @@
       </c>
     </row>
     <row r="34">
-      <c r="B34" t="s" s="2">
+      <c r="B34" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C34" t="s" s="2">
+      <c r="C34" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D34" t="s" s="2">
+      <c r="D34" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E34" t="s" s="2">
+      <c r="E34" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F34" t="s" s="2">
+      <c r="F34" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G34" t="s" s="2">
+      <c r="G34" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H34" t="s" s="2">
+      <c r="H34" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I34" t="s" s="2">
+      <c r="I34" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1227,10 +1239,10 @@
       <c r="I38">
         <f>((C38-C37)^2+(D38- D37)^2)^.5</f>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K38" s="2" t="s">
+      <c r="J38" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K38" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L38" t="n">
@@ -1274,28 +1286,28 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="s" s="2">
+      <c r="A40" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B40" t="s" s="2">
+      <c r="B40" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C40" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D40" t="s" s="2">
+      <c r="C40" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D40" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E40" t="s" s="2">
+      <c r="E40" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F40" t="s" s="2">
+      <c r="F40" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G40" t="s" s="2">
+      <c r="G40" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H40" t="s" s="2">
+      <c r="H40" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1320,28 +1332,28 @@
       </c>
     </row>
     <row r="42">
-      <c r="B42" t="s" s="2">
+      <c r="B42" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C42" t="s" s="2">
+      <c r="C42" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D42" t="s" s="2">
+      <c r="D42" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E42" t="s" s="2">
+      <c r="E42" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F42" t="s" s="2">
+      <c r="F42" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G42" t="s" s="2">
+      <c r="G42" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H42" t="s" s="2">
+      <c r="H42" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I42" t="s" s="2">
+      <c r="I42" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1400,10 +1412,10 @@
       <c r="I44">
         <f>((C44-C43)^2+(D44- D43)^2)^.5</f>
       </c>
-      <c r="J44" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K44" s="2" t="s">
+      <c r="J44" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K44" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L44" t="n">
@@ -1447,28 +1459,28 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="s" s="2">
+      <c r="A46" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B46" t="s" s="2">
+      <c r="B46" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C46" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D46" t="s" s="2">
+      <c r="C46" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D46" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E46" t="s" s="2">
+      <c r="E46" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F46" t="s" s="2">
+      <c r="F46" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G46" t="s" s="2">
+      <c r="G46" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H46" t="s" s="2">
+      <c r="H46" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1493,28 +1505,28 @@
       </c>
     </row>
     <row r="48">
-      <c r="B48" t="s" s="2">
+      <c r="B48" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C48" t="s" s="2">
+      <c r="C48" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D48" t="s" s="2">
+      <c r="D48" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E48" t="s" s="2">
+      <c r="E48" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F48" t="s" s="2">
+      <c r="F48" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G48" t="s" s="2">
+      <c r="G48" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H48" t="s" s="2">
+      <c r="H48" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I48" t="s" s="2">
+      <c r="I48" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1631,10 +1643,10 @@
       <c r="I52">
         <f>((C52-C51)^2+(D52- D51)^2)^.5</f>
       </c>
-      <c r="J52" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K52" s="2" t="s">
+      <c r="J52" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K52" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L52" t="n">
@@ -1678,28 +1690,28 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="s" s="2">
+      <c r="A54" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B54" t="s" s="2">
+      <c r="B54" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C54" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D54" t="s" s="2">
+      <c r="C54" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D54" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E54" t="s" s="2">
+      <c r="E54" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F54" t="s" s="2">
+      <c r="F54" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G54" t="s" s="2">
+      <c r="G54" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H54" t="s" s="2">
+      <c r="H54" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1724,28 +1736,28 @@
       </c>
     </row>
     <row r="56">
-      <c r="B56" t="s" s="2">
+      <c r="B56" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C56" t="s" s="2">
+      <c r="C56" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D56" t="s" s="2">
+      <c r="D56" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E56" t="s" s="2">
+      <c r="E56" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F56" t="s" s="2">
+      <c r="F56" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G56" t="s" s="2">
+      <c r="G56" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H56" t="s" s="2">
+      <c r="H56" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I56" t="s" s="2">
+      <c r="I56" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1862,10 +1874,10 @@
       <c r="I60">
         <f>((C60-C59)^2+(D60- D59)^2)^.5</f>
       </c>
-      <c r="J60" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K60" s="2" t="s">
+      <c r="J60" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K60" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L60" t="n">
@@ -1909,28 +1921,28 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="s" s="2">
+      <c r="A62" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B62" t="s" s="2">
+      <c r="B62" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C62" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D62" t="s" s="2">
+      <c r="C62" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D62" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E62" t="s" s="2">
+      <c r="E62" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F62" t="s" s="2">
+      <c r="F62" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G62" t="s" s="2">
+      <c r="G62" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H62" t="s" s="2">
+      <c r="H62" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1955,28 +1967,28 @@
       </c>
     </row>
     <row r="64">
-      <c r="B64" t="s" s="2">
+      <c r="B64" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C64" t="s" s="2">
+      <c r="C64" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D64" t="s" s="2">
+      <c r="D64" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E64" t="s" s="2">
+      <c r="E64" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F64" t="s" s="2">
+      <c r="F64" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G64" t="s" s="2">
+      <c r="G64" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H64" t="s" s="2">
+      <c r="H64" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I64" t="s" s="2">
+      <c r="I64" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2064,10 +2076,10 @@
       <c r="I67">
         <f>((C67-C66)^2+(D67- D66)^2)^.5</f>
       </c>
-      <c r="J67" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K67" s="2" t="s">
+      <c r="J67" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K67" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L67" t="n">
@@ -2111,28 +2123,28 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="s" s="2">
+      <c r="A69" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B69" t="s" s="2">
+      <c r="B69" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C69" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D69" t="s" s="2">
+      <c r="C69" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D69" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E69" t="s" s="2">
+      <c r="E69" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F69" t="s" s="2">
+      <c r="F69" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G69" t="s" s="2">
+      <c r="G69" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H69" t="s" s="2">
+      <c r="H69" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2157,28 +2169,28 @@
       </c>
     </row>
     <row r="71">
-      <c r="B71" t="s" s="2">
+      <c r="B71" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C71" t="s" s="2">
+      <c r="C71" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D71" t="s" s="2">
+      <c r="D71" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E71" t="s" s="2">
+      <c r="E71" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F71" t="s" s="2">
+      <c r="F71" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G71" t="s" s="2">
+      <c r="G71" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H71" t="s" s="2">
+      <c r="H71" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I71" t="s" s="2">
+      <c r="I71" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2266,10 +2278,10 @@
       <c r="I74">
         <f>((C74-C73)^2+(D74- D73)^2)^.5</f>
       </c>
-      <c r="J74" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K74" s="2" t="s">
+      <c r="J74" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K74" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L74" t="n">
@@ -2313,28 +2325,28 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="s" s="2">
+      <c r="A76" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B76" t="s" s="2">
+      <c r="B76" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C76" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D76" t="s" s="2">
+      <c r="C76" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D76" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E76" t="s" s="2">
+      <c r="E76" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F76" t="s" s="2">
+      <c r="F76" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G76" t="s" s="2">
+      <c r="G76" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H76" t="s" s="2">
+      <c r="H76" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2359,28 +2371,28 @@
       </c>
     </row>
     <row r="78">
-      <c r="B78" t="s" s="2">
+      <c r="B78" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C78" t="s" s="2">
+      <c r="C78" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D78" t="s" s="2">
+      <c r="D78" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E78" t="s" s="2">
+      <c r="E78" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F78" t="s" s="2">
+      <c r="F78" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G78" t="s" s="2">
+      <c r="G78" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H78" t="s" s="2">
+      <c r="H78" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I78" t="s" s="2">
+      <c r="I78" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2497,10 +2509,10 @@
       <c r="I82">
         <f>((C82-C81)^2+(D82- D81)^2)^.5</f>
       </c>
-      <c r="J82" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K82" s="2" t="s">
+      <c r="J82" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K82" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L82" t="n">
@@ -2544,28 +2556,28 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="s" s="2">
+      <c r="A84" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B84" t="s" s="2">
+      <c r="B84" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C84" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D84" t="s" s="2">
+      <c r="C84" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D84" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E84" t="s" s="2">
+      <c r="E84" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F84" t="s" s="2">
+      <c r="F84" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G84" t="s" s="2">
+      <c r="G84" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H84" t="s" s="2">
+      <c r="H84" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2590,28 +2602,28 @@
       </c>
     </row>
     <row r="86">
-      <c r="B86" t="s" s="2">
+      <c r="B86" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C86" t="s" s="2">
+      <c r="C86" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D86" t="s" s="2">
+      <c r="D86" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E86" t="s" s="2">
+      <c r="E86" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F86" t="s" s="2">
+      <c r="F86" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G86" t="s" s="2">
+      <c r="G86" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H86" t="s" s="2">
+      <c r="H86" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I86" t="s" s="2">
+      <c r="I86" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2786,10 +2798,10 @@
       <c r="I92">
         <f>((C92-C91)^2+(D92- D91)^2)^.5</f>
       </c>
-      <c r="J92" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K92" s="2" t="s">
+      <c r="J92" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K92" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L92" t="n">
@@ -2833,28 +2845,28 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="s" s="2">
+      <c r="A94" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B94" t="s" s="2">
+      <c r="B94" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C94" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D94" t="s" s="2">
+      <c r="C94" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D94" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E94" t="s" s="2">
+      <c r="E94" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F94" t="s" s="2">
+      <c r="F94" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G94" t="s" s="2">
+      <c r="G94" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H94" t="s" s="2">
+      <c r="H94" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2879,28 +2891,28 @@
       </c>
     </row>
     <row r="96">
-      <c r="B96" t="s" s="2">
+      <c r="B96" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C96" t="s" s="2">
+      <c r="C96" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D96" t="s" s="2">
+      <c r="D96" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E96" t="s" s="2">
+      <c r="E96" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F96" t="s" s="2">
+      <c r="F96" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G96" t="s" s="2">
+      <c r="G96" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H96" t="s" s="2">
+      <c r="H96" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I96" t="s" s="2">
+      <c r="I96" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2959,10 +2971,10 @@
       <c r="I98">
         <f>((C98-C97)^2+(D98- D97)^2)^.5</f>
       </c>
-      <c r="J98" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K98" s="2" t="s">
+      <c r="J98" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K98" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L98" t="n">
@@ -3006,28 +3018,28 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="s" s="2">
+      <c r="A100" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B100" t="s" s="2">
+      <c r="B100" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C100" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D100" t="s" s="2">
+      <c r="C100" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D100" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E100" t="s" s="2">
+      <c r="E100" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F100" t="s" s="2">
+      <c r="F100" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G100" t="s" s="2">
+      <c r="G100" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H100" t="s" s="2">
+      <c r="H100" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3052,28 +3064,28 @@
       </c>
     </row>
     <row r="102">
-      <c r="B102" t="s" s="2">
+      <c r="B102" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C102" t="s" s="2">
+      <c r="C102" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D102" t="s" s="2">
+      <c r="D102" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E102" t="s" s="2">
+      <c r="E102" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F102" t="s" s="2">
+      <c r="F102" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G102" t="s" s="2">
+      <c r="G102" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H102" t="s" s="2">
+      <c r="H102" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I102" t="s" s="2">
+      <c r="I102" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3248,10 +3260,10 @@
       <c r="I108">
         <f>((C108-C107)^2+(D108- D107)^2)^.5</f>
       </c>
-      <c r="J108" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K108" s="2" t="s">
+      <c r="J108" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K108" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L108" t="n">
@@ -3295,28 +3307,28 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="s" s="2">
+      <c r="A110" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B110" t="s" s="2">
+      <c r="B110" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C110" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D110" t="s" s="2">
+      <c r="C110" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D110" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E110" t="s" s="2">
+      <c r="E110" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F110" t="s" s="2">
+      <c r="F110" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G110" t="s" s="2">
+      <c r="G110" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H110" t="s" s="2">
+      <c r="H110" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3341,28 +3353,28 @@
       </c>
     </row>
     <row r="112">
-      <c r="B112" t="s" s="2">
+      <c r="B112" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C112" t="s" s="2">
+      <c r="C112" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D112" t="s" s="2">
+      <c r="D112" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E112" t="s" s="2">
+      <c r="E112" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F112" t="s" s="2">
+      <c r="F112" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G112" t="s" s="2">
+      <c r="G112" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H112" t="s" s="2">
+      <c r="H112" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I112" t="s" s="2">
+      <c r="I112" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3450,10 +3462,10 @@
       <c r="I115">
         <f>((C115-C114)^2+(D115- D114)^2)^.5</f>
       </c>
-      <c r="J115" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K115" s="2" t="s">
+      <c r="J115" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K115" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L115" t="n">
@@ -3497,28 +3509,28 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="s" s="2">
+      <c r="A117" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B117" t="s" s="2">
+      <c r="B117" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C117" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D117" t="s" s="2">
+      <c r="C117" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D117" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E117" t="s" s="2">
+      <c r="E117" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F117" t="s" s="2">
+      <c r="F117" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G117" t="s" s="2">
+      <c r="G117" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H117" t="s" s="2">
+      <c r="H117" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3543,28 +3555,28 @@
       </c>
     </row>
     <row r="119">
-      <c r="B119" t="s" s="2">
+      <c r="B119" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C119" t="s" s="2">
+      <c r="C119" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D119" t="s" s="2">
+      <c r="D119" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E119" t="s" s="2">
+      <c r="E119" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F119" t="s" s="2">
+      <c r="F119" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G119" t="s" s="2">
+      <c r="G119" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H119" t="s" s="2">
+      <c r="H119" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I119" t="s" s="2">
+      <c r="I119" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3623,10 +3635,10 @@
       <c r="I121">
         <f>((C121-C120)^2+(D121- D120)^2)^.5</f>
       </c>
-      <c r="J121" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K121" s="2" t="s">
+      <c r="J121" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K121" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L121" t="n">
@@ -3670,28 +3682,28 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="s" s="2">
+      <c r="A123" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B123" t="s" s="2">
+      <c r="B123" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C123" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D123" t="s" s="2">
+      <c r="C123" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D123" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E123" t="s" s="2">
+      <c r="E123" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F123" t="s" s="2">
+      <c r="F123" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G123" t="s" s="2">
+      <c r="G123" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H123" t="s" s="2">
+      <c r="H123" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3716,28 +3728,28 @@
       </c>
     </row>
     <row r="125">
-      <c r="B125" t="s" s="2">
+      <c r="B125" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C125" t="s" s="2">
+      <c r="C125" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D125" t="s" s="2">
+      <c r="D125" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E125" t="s" s="2">
+      <c r="E125" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F125" t="s" s="2">
+      <c r="F125" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G125" t="s" s="2">
+      <c r="G125" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H125" t="s" s="2">
+      <c r="H125" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I125" t="s" s="2">
+      <c r="I125" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3796,10 +3808,10 @@
       <c r="I127">
         <f>((C127-C126)^2+(D127- D126)^2)^.5</f>
       </c>
-      <c r="J127" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K127" s="2" t="s">
+      <c r="J127" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K127" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L127" t="n">
@@ -3843,28 +3855,28 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="s" s="2">
+      <c r="A129" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B129" t="s" s="2">
+      <c r="B129" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C129" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D129" t="s" s="2">
+      <c r="C129" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D129" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E129" t="s" s="2">
+      <c r="E129" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F129" t="s" s="2">
+      <c r="F129" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G129" t="s" s="2">
+      <c r="G129" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H129" t="s" s="2">
+      <c r="H129" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3889,28 +3901,28 @@
       </c>
     </row>
     <row r="131">
-      <c r="B131" t="s" s="2">
+      <c r="B131" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C131" t="s" s="2">
+      <c r="C131" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D131" t="s" s="2">
+      <c r="D131" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E131" t="s" s="2">
+      <c r="E131" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F131" t="s" s="2">
+      <c r="F131" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G131" t="s" s="2">
+      <c r="G131" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H131" t="s" s="2">
+      <c r="H131" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I131" t="s" s="2">
+      <c r="I131" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4027,10 +4039,10 @@
       <c r="I135">
         <f>((C135-C134)^2+(D135- D134)^2)^.5</f>
       </c>
-      <c r="J135" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K135" s="2" t="s">
+      <c r="J135" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K135" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L135" t="n">
@@ -4074,28 +4086,28 @@
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="s" s="2">
+      <c r="A137" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B137" t="s" s="2">
+      <c r="B137" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C137" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D137" t="s" s="2">
+      <c r="C137" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D137" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E137" t="s" s="2">
+      <c r="E137" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F137" t="s" s="2">
+      <c r="F137" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G137" t="s" s="2">
+      <c r="G137" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H137" t="s" s="2">
+      <c r="H137" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4120,28 +4132,28 @@
       </c>
     </row>
     <row r="139">
-      <c r="B139" t="s" s="2">
+      <c r="B139" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C139" t="s" s="2">
+      <c r="C139" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D139" t="s" s="2">
+      <c r="D139" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E139" t="s" s="2">
+      <c r="E139" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F139" t="s" s="2">
+      <c r="F139" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G139" t="s" s="2">
+      <c r="G139" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H139" t="s" s="2">
+      <c r="H139" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I139" t="s" s="2">
+      <c r="I139" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4258,10 +4270,10 @@
       <c r="I143">
         <f>((C143-C142)^2+(D143- D142)^2)^.5</f>
       </c>
-      <c r="J143" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K143" s="2" t="s">
+      <c r="J143" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K143" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L143" t="n">
@@ -4305,28 +4317,28 @@
       </c>
     </row>
     <row r="145">
-      <c r="A145" t="s" s="2">
+      <c r="A145" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B145" t="s" s="2">
+      <c r="B145" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C145" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D145" t="s" s="2">
+      <c r="C145" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D145" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E145" t="s" s="2">
+      <c r="E145" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F145" t="s" s="2">
+      <c r="F145" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G145" t="s" s="2">
+      <c r="G145" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H145" t="s" s="2">
+      <c r="H145" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4351,28 +4363,28 @@
       </c>
     </row>
     <row r="147">
-      <c r="B147" t="s" s="2">
+      <c r="B147" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C147" t="s" s="2">
+      <c r="C147" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D147" t="s" s="2">
+      <c r="D147" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E147" t="s" s="2">
+      <c r="E147" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F147" t="s" s="2">
+      <c r="F147" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G147" t="s" s="2">
+      <c r="G147" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H147" t="s" s="2">
+      <c r="H147" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I147" t="s" s="2">
+      <c r="I147" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4489,10 +4501,10 @@
       <c r="I151">
         <f>((C151-C150)^2+(D151- D150)^2)^.5</f>
       </c>
-      <c r="J151" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K151" s="2" t="s">
+      <c r="J151" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K151" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L151" t="n">
@@ -4536,28 +4548,28 @@
       </c>
     </row>
     <row r="153">
-      <c r="A153" t="s" s="2">
+      <c r="A153" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B153" t="s" s="2">
+      <c r="B153" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C153" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D153" t="s" s="2">
+      <c r="C153" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D153" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E153" t="s" s="2">
+      <c r="E153" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F153" t="s" s="2">
+      <c r="F153" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G153" t="s" s="2">
+      <c r="G153" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H153" t="s" s="2">
+      <c r="H153" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4582,28 +4594,28 @@
       </c>
     </row>
     <row r="155">
-      <c r="B155" t="s" s="2">
+      <c r="B155" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C155" t="s" s="2">
+      <c r="C155" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D155" t="s" s="2">
+      <c r="D155" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E155" t="s" s="2">
+      <c r="E155" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F155" t="s" s="2">
+      <c r="F155" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G155" t="s" s="2">
+      <c r="G155" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H155" t="s" s="2">
+      <c r="H155" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I155" t="s" s="2">
+      <c r="I155" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4749,10 +4761,10 @@
       <c r="I160">
         <f>((C160-C159)^2+(D160- D159)^2)^.5</f>
       </c>
-      <c r="J160" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K160" s="2" t="s">
+      <c r="J160" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K160" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L160" t="n">
@@ -4796,28 +4808,28 @@
       </c>
     </row>
     <row r="162">
-      <c r="A162" t="s" s="2">
+      <c r="A162" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B162" t="s" s="2">
+      <c r="B162" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C162" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D162" t="s" s="2">
+      <c r="C162" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D162" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E162" t="s" s="2">
+      <c r="E162" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F162" t="s" s="2">
+      <c r="F162" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G162" t="s" s="2">
+      <c r="G162" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H162" t="s" s="2">
+      <c r="H162" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4842,28 +4854,28 @@
       </c>
     </row>
     <row r="164">
-      <c r="B164" t="s" s="2">
+      <c r="B164" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C164" t="s" s="2">
+      <c r="C164" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D164" t="s" s="2">
+      <c r="D164" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E164" t="s" s="2">
+      <c r="E164" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F164" t="s" s="2">
+      <c r="F164" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G164" t="s" s="2">
+      <c r="G164" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H164" t="s" s="2">
+      <c r="H164" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I164" t="s" s="2">
+      <c r="I164" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4980,10 +4992,10 @@
       <c r="I168">
         <f>((C168-C167)^2+(D168- D167)^2)^.5</f>
       </c>
-      <c r="J168" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K168" s="2" t="s">
+      <c r="J168" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K168" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L168" t="n">
@@ -5027,28 +5039,28 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="s" s="2">
+      <c r="A170" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B170" t="s" s="2">
+      <c r="B170" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C170" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D170" t="s" s="2">
+      <c r="C170" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D170" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E170" t="s" s="2">
+      <c r="E170" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F170" t="s" s="2">
+      <c r="F170" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G170" t="s" s="2">
+      <c r="G170" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H170" t="s" s="2">
+      <c r="H170" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5073,28 +5085,28 @@
       </c>
     </row>
     <row r="172">
-      <c r="B172" t="s" s="2">
+      <c r="B172" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C172" t="s" s="2">
+      <c r="C172" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D172" t="s" s="2">
+      <c r="D172" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E172" t="s" s="2">
+      <c r="E172" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F172" t="s" s="2">
+      <c r="F172" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G172" t="s" s="2">
+      <c r="G172" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H172" t="s" s="2">
+      <c r="H172" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I172" t="s" s="2">
+      <c r="I172" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5182,10 +5194,10 @@
       <c r="I175">
         <f>((C175-C174)^2+(D175- D174)^2)^.5</f>
       </c>
-      <c r="J175" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K175" s="2" t="s">
+      <c r="J175" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K175" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L175" t="n">
@@ -5229,28 +5241,28 @@
       </c>
     </row>
     <row r="177">
-      <c r="A177" t="s" s="2">
+      <c r="A177" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B177" t="s" s="2">
+      <c r="B177" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C177" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D177" t="s" s="2">
+      <c r="C177" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D177" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E177" t="s" s="2">
+      <c r="E177" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F177" t="s" s="2">
+      <c r="F177" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G177" t="s" s="2">
+      <c r="G177" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H177" t="s" s="2">
+      <c r="H177" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5275,28 +5287,28 @@
       </c>
     </row>
     <row r="179">
-      <c r="B179" t="s" s="2">
+      <c r="B179" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C179" t="s" s="2">
+      <c r="C179" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D179" t="s" s="2">
+      <c r="D179" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E179" t="s" s="2">
+      <c r="E179" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F179" t="s" s="2">
+      <c r="F179" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G179" t="s" s="2">
+      <c r="G179" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H179" t="s" s="2">
+      <c r="H179" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I179" t="s" s="2">
+      <c r="I179" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5384,10 +5396,10 @@
       <c r="I182">
         <f>((C182-C181)^2+(D182- D181)^2)^.5</f>
       </c>
-      <c r="J182" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K182" s="2" t="s">
+      <c r="J182" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K182" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L182" t="n">
@@ -5431,28 +5443,28 @@
       </c>
     </row>
     <row r="184">
-      <c r="A184" t="s" s="2">
+      <c r="A184" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B184" t="s" s="2">
+      <c r="B184" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C184" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D184" t="s" s="2">
+      <c r="C184" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D184" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E184" t="s" s="2">
+      <c r="E184" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F184" t="s" s="2">
+      <c r="F184" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G184" t="s" s="2">
+      <c r="G184" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H184" t="s" s="2">
+      <c r="H184" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5477,28 +5489,28 @@
       </c>
     </row>
     <row r="186">
-      <c r="B186" t="s" s="2">
+      <c r="B186" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C186" t="s" s="2">
+      <c r="C186" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D186" t="s" s="2">
+      <c r="D186" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E186" t="s" s="2">
+      <c r="E186" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F186" t="s" s="2">
+      <c r="F186" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G186" t="s" s="2">
+      <c r="G186" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H186" t="s" s="2">
+      <c r="H186" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I186" t="s" s="2">
+      <c r="I186" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5557,10 +5569,10 @@
       <c r="I188">
         <f>((C188-C187)^2+(D188- D187)^2)^.5</f>
       </c>
-      <c r="J188" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K188" s="2" t="s">
+      <c r="J188" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K188" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L188" t="n">
@@ -5604,28 +5616,28 @@
       </c>
     </row>
     <row r="190">
-      <c r="A190" t="s" s="2">
+      <c r="A190" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B190" t="s" s="2">
+      <c r="B190" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C190" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D190" t="s" s="2">
+      <c r="C190" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D190" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E190" t="s" s="2">
+      <c r="E190" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F190" t="s" s="2">
+      <c r="F190" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G190" t="s" s="2">
+      <c r="G190" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H190" t="s" s="2">
+      <c r="H190" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5650,28 +5662,28 @@
       </c>
     </row>
     <row r="192">
-      <c r="B192" t="s" s="2">
+      <c r="B192" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C192" t="s" s="2">
+      <c r="C192" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D192" t="s" s="2">
+      <c r="D192" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E192" t="s" s="2">
+      <c r="E192" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F192" t="s" s="2">
+      <c r="F192" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G192" t="s" s="2">
+      <c r="G192" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H192" t="s" s="2">
+      <c r="H192" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I192" t="s" s="2">
+      <c r="I192" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5759,10 +5771,10 @@
       <c r="I195">
         <f>((C195-C194)^2+(D195- D194)^2)^.5</f>
       </c>
-      <c r="J195" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K195" s="2" t="s">
+      <c r="J195" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K195" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L195" t="n">
@@ -5806,28 +5818,28 @@
       </c>
     </row>
     <row r="197">
-      <c r="A197" t="s" s="2">
+      <c r="A197" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B197" t="s" s="2">
+      <c r="B197" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C197" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D197" t="s" s="2">
+      <c r="C197" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D197" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E197" t="s" s="2">
+      <c r="E197" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F197" t="s" s="2">
+      <c r="F197" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G197" t="s" s="2">
+      <c r="G197" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H197" t="s" s="2">
+      <c r="H197" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5852,28 +5864,28 @@
       </c>
     </row>
     <row r="199">
-      <c r="B199" t="s" s="2">
+      <c r="B199" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C199" t="s" s="2">
+      <c r="C199" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D199" t="s" s="2">
+      <c r="D199" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E199" t="s" s="2">
+      <c r="E199" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F199" t="s" s="2">
+      <c r="F199" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G199" t="s" s="2">
+      <c r="G199" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H199" t="s" s="2">
+      <c r="H199" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I199" t="s" s="2">
+      <c r="I199" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5932,10 +5944,10 @@
       <c r="I201">
         <f>((C201-C200)^2+(D201- D200)^2)^.5</f>
       </c>
-      <c r="J201" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K201" s="2" t="s">
+      <c r="J201" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K201" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L201" t="n">
@@ -5979,28 +5991,28 @@
       </c>
     </row>
     <row r="203">
-      <c r="A203" t="s" s="2">
+      <c r="A203" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B203" t="s" s="2">
+      <c r="B203" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C203" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D203" t="s" s="2">
+      <c r="C203" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D203" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E203" t="s" s="2">
+      <c r="E203" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F203" t="s" s="2">
+      <c r="F203" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G203" t="s" s="2">
+      <c r="G203" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H203" t="s" s="2">
+      <c r="H203" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6025,28 +6037,28 @@
       </c>
     </row>
     <row r="205">
-      <c r="B205" t="s" s="2">
+      <c r="B205" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C205" t="s" s="2">
+      <c r="C205" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D205" t="s" s="2">
+      <c r="D205" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E205" t="s" s="2">
+      <c r="E205" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F205" t="s" s="2">
+      <c r="F205" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G205" t="s" s="2">
+      <c r="G205" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H205" t="s" s="2">
+      <c r="H205" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I205" t="s" s="2">
+      <c r="I205" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6134,10 +6146,10 @@
       <c r="I208">
         <f>((C208-C207)^2+(D208- D207)^2)^.5</f>
       </c>
-      <c r="J208" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K208" s="2" t="s">
+      <c r="J208" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K208" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L208" t="n">
@@ -6181,28 +6193,28 @@
       </c>
     </row>
     <row r="210">
-      <c r="A210" t="s" s="2">
+      <c r="A210" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B210" t="s" s="2">
+      <c r="B210" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C210" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D210" t="s" s="2">
+      <c r="C210" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D210" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E210" t="s" s="2">
+      <c r="E210" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F210" t="s" s="2">
+      <c r="F210" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G210" t="s" s="2">
+      <c r="G210" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H210" t="s" s="2">
+      <c r="H210" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6227,28 +6239,28 @@
       </c>
     </row>
     <row r="212">
-      <c r="B212" t="s" s="2">
+      <c r="B212" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C212" t="s" s="2">
+      <c r="C212" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D212" t="s" s="2">
+      <c r="D212" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E212" t="s" s="2">
+      <c r="E212" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F212" t="s" s="2">
+      <c r="F212" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G212" t="s" s="2">
+      <c r="G212" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H212" t="s" s="2">
+      <c r="H212" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I212" t="s" s="2">
+      <c r="I212" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6365,10 +6377,10 @@
       <c r="I216">
         <f>((C216-C215)^2+(D216- D215)^2)^.5</f>
       </c>
-      <c r="J216" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K216" s="2" t="s">
+      <c r="J216" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K216" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L216" t="n">
@@ -6412,28 +6424,28 @@
       </c>
     </row>
     <row r="218">
-      <c r="A218" t="s" s="2">
+      <c r="A218" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B218" t="s" s="2">
+      <c r="B218" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C218" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D218" t="s" s="2">
+      <c r="C218" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D218" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E218" t="s" s="2">
+      <c r="E218" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F218" t="s" s="2">
+      <c r="F218" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G218" t="s" s="2">
+      <c r="G218" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H218" t="s" s="2">
+      <c r="H218" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6458,28 +6470,28 @@
       </c>
     </row>
     <row r="220">
-      <c r="B220" t="s" s="2">
+      <c r="B220" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C220" t="s" s="2">
+      <c r="C220" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D220" t="s" s="2">
+      <c r="D220" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E220" t="s" s="2">
+      <c r="E220" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F220" t="s" s="2">
+      <c r="F220" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G220" t="s" s="2">
+      <c r="G220" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H220" t="s" s="2">
+      <c r="H220" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I220" t="s" s="2">
+      <c r="I220" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6538,10 +6550,10 @@
       <c r="I222">
         <f>((C222-C221)^2+(D222- D221)^2)^.5</f>
       </c>
-      <c r="J222" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K222" s="2" t="s">
+      <c r="J222" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K222" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L222" t="n">
@@ -6585,28 +6597,28 @@
       </c>
     </row>
     <row r="224">
-      <c r="A224" t="s" s="2">
+      <c r="A224" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B224" t="s" s="2">
+      <c r="B224" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C224" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D224" t="s" s="2">
+      <c r="C224" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D224" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E224" t="s" s="2">
+      <c r="E224" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F224" t="s" s="2">
+      <c r="F224" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G224" t="s" s="2">
+      <c r="G224" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H224" t="s" s="2">
+      <c r="H224" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6631,28 +6643,28 @@
       </c>
     </row>
     <row r="226">
-      <c r="B226" t="s" s="2">
+      <c r="B226" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C226" t="s" s="2">
+      <c r="C226" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D226" t="s" s="2">
+      <c r="D226" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E226" t="s" s="2">
+      <c r="E226" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F226" t="s" s="2">
+      <c r="F226" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G226" t="s" s="2">
+      <c r="G226" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H226" t="s" s="2">
+      <c r="H226" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I226" t="s" s="2">
+      <c r="I226" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6798,10 +6810,10 @@
       <c r="I231">
         <f>((C231-C230)^2+(D231- D230)^2)^.5</f>
       </c>
-      <c r="J231" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K231" s="2" t="s">
+      <c r="J231" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K231" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L231" t="n">
@@ -6845,28 +6857,28 @@
       </c>
     </row>
     <row r="233">
-      <c r="A233" t="s" s="2">
+      <c r="A233" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B233" t="s" s="2">
+      <c r="B233" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C233" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D233" t="s" s="2">
+      <c r="C233" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D233" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E233" t="s" s="2">
+      <c r="E233" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F233" t="s" s="2">
+      <c r="F233" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G233" t="s" s="2">
+      <c r="G233" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H233" t="s" s="2">
+      <c r="H233" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6891,28 +6903,28 @@
       </c>
     </row>
     <row r="235">
-      <c r="B235" t="s" s="2">
+      <c r="B235" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C235" t="s" s="2">
+      <c r="C235" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D235" t="s" s="2">
+      <c r="D235" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E235" t="s" s="2">
+      <c r="E235" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F235" t="s" s="2">
+      <c r="F235" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G235" t="s" s="2">
+      <c r="G235" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H235" t="s" s="2">
+      <c r="H235" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I235" t="s" s="2">
+      <c r="I235" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7000,10 +7012,10 @@
       <c r="I238">
         <f>((C238-C237)^2+(D238- D237)^2)^.5</f>
       </c>
-      <c r="J238" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K238" s="2" t="s">
+      <c r="J238" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K238" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L238" t="n">
@@ -7047,28 +7059,28 @@
       </c>
     </row>
     <row r="240">
-      <c r="A240" t="s" s="2">
+      <c r="A240" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B240" t="s" s="2">
+      <c r="B240" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C240" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D240" t="s" s="2">
+      <c r="C240" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D240" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E240" t="s" s="2">
+      <c r="E240" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F240" t="s" s="2">
+      <c r="F240" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G240" t="s" s="2">
+      <c r="G240" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H240" t="s" s="2">
+      <c r="H240" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7093,28 +7105,28 @@
       </c>
     </row>
     <row r="242">
-      <c r="B242" t="s" s="2">
+      <c r="B242" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C242" t="s" s="2">
+      <c r="C242" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D242" t="s" s="2">
+      <c r="D242" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E242" t="s" s="2">
+      <c r="E242" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F242" t="s" s="2">
+      <c r="F242" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G242" t="s" s="2">
+      <c r="G242" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H242" t="s" s="2">
+      <c r="H242" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I242" t="s" s="2">
+      <c r="I242" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7202,10 +7214,10 @@
       <c r="I245">
         <f>((C245-C244)^2+(D245- D244)^2)^.5</f>
       </c>
-      <c r="J245" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K245" s="2" t="s">
+      <c r="J245" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K245" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L245" t="n">
@@ -7249,28 +7261,28 @@
       </c>
     </row>
     <row r="247">
-      <c r="A247" t="s" s="2">
+      <c r="A247" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B247" t="s" s="2">
+      <c r="B247" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C247" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D247" t="s" s="2">
+      <c r="C247" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D247" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E247" t="s" s="2">
+      <c r="E247" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F247" t="s" s="2">
+      <c r="F247" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G247" t="s" s="2">
+      <c r="G247" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H247" t="s" s="2">
+      <c r="H247" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7295,28 +7307,28 @@
       </c>
     </row>
     <row r="249">
-      <c r="B249" t="s" s="2">
+      <c r="B249" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C249" t="s" s="2">
+      <c r="C249" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D249" t="s" s="2">
+      <c r="D249" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E249" t="s" s="2">
+      <c r="E249" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F249" t="s" s="2">
+      <c r="F249" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G249" t="s" s="2">
+      <c r="G249" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H249" t="s" s="2">
+      <c r="H249" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I249" t="s" s="2">
+      <c r="I249" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7375,10 +7387,10 @@
       <c r="I251">
         <f>((C251-C250)^2+(D251- D250)^2)^.5</f>
       </c>
-      <c r="J251" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K251" s="2" t="s">
+      <c r="J251" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K251" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L251" t="n">
@@ -7422,28 +7434,28 @@
       </c>
     </row>
     <row r="253">
-      <c r="A253" t="s" s="2">
+      <c r="A253" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B253" t="s" s="2">
+      <c r="B253" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C253" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D253" t="s" s="2">
+      <c r="C253" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D253" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E253" t="s" s="2">
+      <c r="E253" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F253" t="s" s="2">
+      <c r="F253" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G253" t="s" s="2">
+      <c r="G253" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H253" t="s" s="2">
+      <c r="H253" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7468,28 +7480,28 @@
       </c>
     </row>
     <row r="255">
-      <c r="B255" t="s" s="2">
+      <c r="B255" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C255" t="s" s="2">
+      <c r="C255" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D255" t="s" s="2">
+      <c r="D255" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E255" t="s" s="2">
+      <c r="E255" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F255" t="s" s="2">
+      <c r="F255" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G255" t="s" s="2">
+      <c r="G255" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H255" t="s" s="2">
+      <c r="H255" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I255" t="s" s="2">
+      <c r="I255" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7548,10 +7560,10 @@
       <c r="I257">
         <f>((C257-C256)^2+(D257- D256)^2)^.5</f>
       </c>
-      <c r="J257" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K257" s="2" t="s">
+      <c r="J257" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K257" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L257" t="n">
@@ -7595,28 +7607,28 @@
       </c>
     </row>
     <row r="259">
-      <c r="A259" t="s" s="2">
+      <c r="A259" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B259" t="s" s="2">
+      <c r="B259" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C259" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D259" t="s" s="2">
+      <c r="C259" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D259" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E259" t="s" s="2">
+      <c r="E259" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F259" t="s" s="2">
+      <c r="F259" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G259" t="s" s="2">
+      <c r="G259" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H259" t="s" s="2">
+      <c r="H259" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7641,28 +7653,28 @@
       </c>
     </row>
     <row r="261">
-      <c r="B261" t="s" s="2">
+      <c r="B261" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C261" t="s" s="2">
+      <c r="C261" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D261" t="s" s="2">
+      <c r="D261" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E261" t="s" s="2">
+      <c r="E261" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F261" t="s" s="2">
+      <c r="F261" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G261" t="s" s="2">
+      <c r="G261" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H261" t="s" s="2">
+      <c r="H261" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I261" t="s" s="2">
+      <c r="I261" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7750,10 +7762,10 @@
       <c r="I264">
         <f>((C264-C263)^2+(D264- D263)^2)^.5</f>
       </c>
-      <c r="J264" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K264" s="2" t="s">
+      <c r="J264" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K264" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L264" t="n">
@@ -7797,28 +7809,28 @@
       </c>
     </row>
     <row r="266">
-      <c r="A266" t="s" s="2">
+      <c r="A266" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B266" t="s" s="2">
+      <c r="B266" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C266" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D266" t="s" s="2">
+      <c r="C266" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D266" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E266" t="s" s="2">
+      <c r="E266" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F266" t="s" s="2">
+      <c r="F266" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G266" t="s" s="2">
+      <c r="G266" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H266" t="s" s="2">
+      <c r="H266" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7843,28 +7855,28 @@
       </c>
     </row>
     <row r="268">
-      <c r="B268" t="s" s="2">
+      <c r="B268" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C268" t="s" s="2">
+      <c r="C268" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D268" t="s" s="2">
+      <c r="D268" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E268" t="s" s="2">
+      <c r="E268" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F268" t="s" s="2">
+      <c r="F268" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G268" t="s" s="2">
+      <c r="G268" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H268" t="s" s="2">
+      <c r="H268" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I268" t="s" s="2">
+      <c r="I268" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7952,10 +7964,10 @@
       <c r="I271">
         <f>((C271-C270)^2+(D271- D270)^2)^.5</f>
       </c>
-      <c r="J271" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K271" s="2" t="s">
+      <c r="J271" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K271" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L271" t="n">
@@ -7999,28 +8011,28 @@
       </c>
     </row>
     <row r="273">
-      <c r="A273" t="s" s="2">
+      <c r="A273" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B273" t="s" s="2">
+      <c r="B273" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C273" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D273" t="s" s="2">
+      <c r="C273" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D273" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E273" t="s" s="2">
+      <c r="E273" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F273" t="s" s="2">
+      <c r="F273" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G273" t="s" s="2">
+      <c r="G273" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H273" t="s" s="2">
+      <c r="H273" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8045,28 +8057,28 @@
       </c>
     </row>
     <row r="275">
-      <c r="B275" t="s" s="2">
+      <c r="B275" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C275" t="s" s="2">
+      <c r="C275" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D275" t="s" s="2">
+      <c r="D275" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E275" t="s" s="2">
+      <c r="E275" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F275" t="s" s="2">
+      <c r="F275" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G275" t="s" s="2">
+      <c r="G275" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H275" t="s" s="2">
+      <c r="H275" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I275" t="s" s="2">
+      <c r="I275" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8154,10 +8166,10 @@
       <c r="I278">
         <f>((C278-C277)^2+(D278- D277)^2)^.5</f>
       </c>
-      <c r="J278" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K278" s="2" t="s">
+      <c r="J278" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K278" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L278" t="n">
@@ -8201,28 +8213,28 @@
       </c>
     </row>
     <row r="280">
-      <c r="A280" t="s" s="2">
+      <c r="A280" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B280" t="s" s="2">
+      <c r="B280" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C280" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D280" t="s" s="2">
+      <c r="C280" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D280" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E280" t="s" s="2">
+      <c r="E280" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F280" t="s" s="2">
+      <c r="F280" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G280" t="s" s="2">
+      <c r="G280" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H280" t="s" s="2">
+      <c r="H280" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8247,28 +8259,28 @@
       </c>
     </row>
     <row r="282">
-      <c r="B282" t="s" s="2">
+      <c r="B282" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C282" t="s" s="2">
+      <c r="C282" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D282" t="s" s="2">
+      <c r="D282" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E282" t="s" s="2">
+      <c r="E282" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F282" t="s" s="2">
+      <c r="F282" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G282" t="s" s="2">
+      <c r="G282" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H282" t="s" s="2">
+      <c r="H282" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I282" t="s" s="2">
+      <c r="I282" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8327,10 +8339,10 @@
       <c r="I284">
         <f>((C284-C283)^2+(D284- D283)^2)^.5</f>
       </c>
-      <c r="J284" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K284" s="2" t="s">
+      <c r="J284" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K284" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L284" t="n">
@@ -8374,28 +8386,28 @@
       </c>
     </row>
     <row r="286">
-      <c r="A286" t="s" s="2">
+      <c r="A286" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B286" t="s" s="2">
+      <c r="B286" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C286" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D286" t="s" s="2">
+      <c r="C286" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D286" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E286" t="s" s="2">
+      <c r="E286" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F286" t="s" s="2">
+      <c r="F286" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G286" t="s" s="2">
+      <c r="G286" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H286" t="s" s="2">
+      <c r="H286" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8420,28 +8432,28 @@
       </c>
     </row>
     <row r="288">
-      <c r="B288" t="s" s="2">
+      <c r="B288" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C288" t="s" s="2">
+      <c r="C288" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D288" t="s" s="2">
+      <c r="D288" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E288" t="s" s="2">
+      <c r="E288" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F288" t="s" s="2">
+      <c r="F288" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G288" t="s" s="2">
+      <c r="G288" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H288" t="s" s="2">
+      <c r="H288" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I288" t="s" s="2">
+      <c r="I288" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8500,10 +8512,10 @@
       <c r="I290">
         <f>((C290-C289)^2+(D290- D289)^2)^.5</f>
       </c>
-      <c r="J290" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K290" s="2" t="s">
+      <c r="J290" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K290" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L290" t="n">
@@ -8547,28 +8559,28 @@
       </c>
     </row>
     <row r="292">
-      <c r="A292" t="s" s="2">
+      <c r="A292" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B292" t="s" s="2">
+      <c r="B292" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C292" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D292" t="s" s="2">
+      <c r="C292" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D292" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E292" t="s" s="2">
+      <c r="E292" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F292" t="s" s="2">
+      <c r="F292" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G292" t="s" s="2">
+      <c r="G292" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H292" t="s" s="2">
+      <c r="H292" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8593,28 +8605,28 @@
       </c>
     </row>
     <row r="294">
-      <c r="B294" t="s" s="2">
+      <c r="B294" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C294" t="s" s="2">
+      <c r="C294" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D294" t="s" s="2">
+      <c r="D294" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E294" t="s" s="2">
+      <c r="E294" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F294" t="s" s="2">
+      <c r="F294" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G294" t="s" s="2">
+      <c r="G294" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H294" t="s" s="2">
+      <c r="H294" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I294" t="s" s="2">
+      <c r="I294" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8702,10 +8714,10 @@
       <c r="I297">
         <f>((C297-C296)^2+(D297- D296)^2)^.5</f>
       </c>
-      <c r="J297" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K297" s="2" t="s">
+      <c r="J297" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K297" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L297" t="n">
@@ -8749,28 +8761,28 @@
       </c>
     </row>
     <row r="299">
-      <c r="A299" t="s" s="2">
+      <c r="A299" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B299" t="s" s="2">
+      <c r="B299" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C299" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D299" t="s" s="2">
+      <c r="C299" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D299" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E299" t="s" s="2">
+      <c r="E299" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F299" t="s" s="2">
+      <c r="F299" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G299" t="s" s="2">
+      <c r="G299" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H299" t="s" s="2">
+      <c r="H299" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8795,28 +8807,28 @@
       </c>
     </row>
     <row r="301">
-      <c r="B301" t="s" s="2">
+      <c r="B301" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C301" t="s" s="2">
+      <c r="C301" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D301" t="s" s="2">
+      <c r="D301" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E301" t="s" s="2">
+      <c r="E301" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F301" t="s" s="2">
+      <c r="F301" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G301" t="s" s="2">
+      <c r="G301" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H301" t="s" s="2">
+      <c r="H301" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I301" t="s" s="2">
+      <c r="I301" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8875,10 +8887,10 @@
       <c r="I303">
         <f>((C303-C302)^2+(D303- D302)^2)^.5</f>
       </c>
-      <c r="J303" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K303" s="2" t="s">
+      <c r="J303" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K303" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L303" t="n">
@@ -8922,28 +8934,28 @@
       </c>
     </row>
     <row r="305">
-      <c r="A305" t="s" s="2">
+      <c r="A305" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B305" t="s" s="2">
+      <c r="B305" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C305" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D305" t="s" s="2">
+      <c r="C305" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D305" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E305" t="s" s="2">
+      <c r="E305" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F305" t="s" s="2">
+      <c r="F305" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G305" t="s" s="2">
+      <c r="G305" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H305" t="s" s="2">
+      <c r="H305" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8968,28 +8980,28 @@
       </c>
     </row>
     <row r="307">
-      <c r="B307" t="s" s="2">
+      <c r="B307" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C307" t="s" s="2">
+      <c r="C307" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D307" t="s" s="2">
+      <c r="D307" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E307" t="s" s="2">
+      <c r="E307" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F307" t="s" s="2">
+      <c r="F307" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G307" t="s" s="2">
+      <c r="G307" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H307" t="s" s="2">
+      <c r="H307" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I307" t="s" s="2">
+      <c r="I307" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9077,10 +9089,10 @@
       <c r="I310">
         <f>((C310-C309)^2+(D310- D309)^2)^.5</f>
       </c>
-      <c r="J310" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K310" s="2" t="s">
+      <c r="J310" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K310" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L310" t="n">
@@ -9124,28 +9136,28 @@
       </c>
     </row>
     <row r="312">
-      <c r="A312" t="s" s="2">
+      <c r="A312" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B312" t="s" s="2">
+      <c r="B312" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C312" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D312" t="s" s="2">
+      <c r="C312" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D312" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E312" t="s" s="2">
+      <c r="E312" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F312" t="s" s="2">
+      <c r="F312" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G312" t="s" s="2">
+      <c r="G312" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H312" t="s" s="2">
+      <c r="H312" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9170,28 +9182,28 @@
       </c>
     </row>
     <row r="314">
-      <c r="B314" t="s" s="2">
+      <c r="B314" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C314" t="s" s="2">
+      <c r="C314" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D314" t="s" s="2">
+      <c r="D314" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E314" t="s" s="2">
+      <c r="E314" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F314" t="s" s="2">
+      <c r="F314" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G314" t="s" s="2">
+      <c r="G314" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H314" t="s" s="2">
+      <c r="H314" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I314" t="s" s="2">
+      <c r="I314" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9250,10 +9262,10 @@
       <c r="I316">
         <f>((C316-C315)^2+(D316- D315)^2)^.5</f>
       </c>
-      <c r="J316" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K316" s="2" t="s">
+      <c r="J316" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K316" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L316" t="n">
@@ -9297,28 +9309,28 @@
       </c>
     </row>
     <row r="318">
-      <c r="A318" t="s" s="2">
+      <c r="A318" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B318" t="s" s="2">
+      <c r="B318" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C318" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D318" t="s" s="2">
+      <c r="C318" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D318" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E318" t="s" s="2">
+      <c r="E318" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F318" t="s" s="2">
+      <c r="F318" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G318" t="s" s="2">
+      <c r="G318" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H318" t="s" s="2">
+      <c r="H318" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9343,28 +9355,28 @@
       </c>
     </row>
     <row r="320">
-      <c r="B320" t="s" s="2">
+      <c r="B320" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C320" t="s" s="2">
+      <c r="C320" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D320" t="s" s="2">
+      <c r="D320" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E320" t="s" s="2">
+      <c r="E320" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F320" t="s" s="2">
+      <c r="F320" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G320" t="s" s="2">
+      <c r="G320" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H320" t="s" s="2">
+      <c r="H320" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I320" t="s" s="2">
+      <c r="I320" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9423,10 +9435,10 @@
       <c r="I322">
         <f>((C322-C321)^2+(D322- D321)^2)^.5</f>
       </c>
-      <c r="J322" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K322" s="2" t="s">
+      <c r="J322" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K322" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L322" t="n">
@@ -9470,28 +9482,28 @@
       </c>
     </row>
     <row r="324">
-      <c r="A324" t="s" s="2">
+      <c r="A324" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B324" t="s" s="2">
+      <c r="B324" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C324" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D324" t="s" s="2">
+      <c r="C324" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D324" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E324" t="s" s="2">
+      <c r="E324" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F324" t="s" s="2">
+      <c r="F324" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G324" t="s" s="2">
+      <c r="G324" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H324" t="s" s="2">
+      <c r="H324" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9516,28 +9528,28 @@
       </c>
     </row>
     <row r="326">
-      <c r="B326" t="s" s="2">
+      <c r="B326" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C326" t="s" s="2">
+      <c r="C326" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D326" t="s" s="2">
+      <c r="D326" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E326" t="s" s="2">
+      <c r="E326" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F326" t="s" s="2">
+      <c r="F326" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G326" t="s" s="2">
+      <c r="G326" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H326" t="s" s="2">
+      <c r="H326" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I326" t="s" s="2">
+      <c r="I326" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9596,10 +9608,10 @@
       <c r="I328">
         <f>((C328-C327)^2+(D328- D327)^2)^.5</f>
       </c>
-      <c r="J328" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K328" s="2" t="s">
+      <c r="J328" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K328" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L328" t="n">
@@ -9643,28 +9655,28 @@
       </c>
     </row>
     <row r="330">
-      <c r="A330" t="s" s="2">
+      <c r="A330" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B330" t="s" s="2">
+      <c r="B330" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C330" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D330" t="s" s="2">
+      <c r="C330" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D330" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E330" t="s" s="2">
+      <c r="E330" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F330" t="s" s="2">
+      <c r="F330" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G330" t="s" s="2">
+      <c r="G330" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H330" t="s" s="2">
+      <c r="H330" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9689,28 +9701,28 @@
       </c>
     </row>
     <row r="332">
-      <c r="B332" t="s" s="2">
+      <c r="B332" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C332" t="s" s="2">
+      <c r="C332" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D332" t="s" s="2">
+      <c r="D332" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E332" t="s" s="2">
+      <c r="E332" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F332" t="s" s="2">
+      <c r="F332" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G332" t="s" s="2">
+      <c r="G332" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H332" t="s" s="2">
+      <c r="H332" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I332" t="s" s="2">
+      <c r="I332" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9769,10 +9781,10 @@
       <c r="I334">
         <f>((C334-C333)^2+(D334- D333)^2)^.5</f>
       </c>
-      <c r="J334" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K334" s="2" t="s">
+      <c r="J334" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K334" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L334" t="n">
@@ -9816,28 +9828,28 @@
       </c>
     </row>
     <row r="336">
-      <c r="A336" t="s" s="2">
+      <c r="A336" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B336" t="s" s="2">
+      <c r="B336" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C336" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D336" t="s" s="2">
+      <c r="C336" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D336" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E336" t="s" s="2">
+      <c r="E336" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F336" t="s" s="2">
+      <c r="F336" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G336" t="s" s="2">
+      <c r="G336" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H336" t="s" s="2">
+      <c r="H336" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9862,28 +9874,28 @@
       </c>
     </row>
     <row r="338">
-      <c r="B338" t="s" s="2">
+      <c r="B338" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C338" t="s" s="2">
+      <c r="C338" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D338" t="s" s="2">
+      <c r="D338" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E338" t="s" s="2">
+      <c r="E338" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F338" t="s" s="2">
+      <c r="F338" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G338" t="s" s="2">
+      <c r="G338" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H338" t="s" s="2">
+      <c r="H338" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I338" t="s" s="2">
+      <c r="I338" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9942,10 +9954,10 @@
       <c r="I340">
         <f>((C340-C339)^2+(D340- D339)^2)^.5</f>
       </c>
-      <c r="J340" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K340" s="2" t="s">
+      <c r="J340" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K340" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L340" t="n">
@@ -9989,28 +10001,28 @@
       </c>
     </row>
     <row r="342">
-      <c r="A342" t="s" s="2">
+      <c r="A342" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B342" t="s" s="2">
+      <c r="B342" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C342" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D342" t="s" s="2">
+      <c r="C342" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D342" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E342" t="s" s="2">
+      <c r="E342" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F342" t="s" s="2">
+      <c r="F342" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G342" t="s" s="2">
+      <c r="G342" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H342" t="s" s="2">
+      <c r="H342" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10035,28 +10047,28 @@
       </c>
     </row>
     <row r="344">
-      <c r="B344" t="s" s="2">
+      <c r="B344" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C344" t="s" s="2">
+      <c r="C344" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D344" t="s" s="2">
+      <c r="D344" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E344" t="s" s="2">
+      <c r="E344" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F344" t="s" s="2">
+      <c r="F344" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G344" t="s" s="2">
+      <c r="G344" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H344" t="s" s="2">
+      <c r="H344" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I344" t="s" s="2">
+      <c r="I344" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10115,10 +10127,10 @@
       <c r="I346">
         <f>((C346-C345)^2+(D346- D345)^2)^.5</f>
       </c>
-      <c r="J346" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K346" s="2" t="s">
+      <c r="J346" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K346" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L346" t="n">
